--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="异常" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>ExceptionOnlyCreateException</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExceptionThrowAndCatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExceptionWithTryCatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>pertestcase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +146,105 @@
   <si>
     <t>bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_1</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_2</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_4</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_8</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_16</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_32</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_64</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_128</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_256</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_512</t>
+  </si>
+  <si>
+    <t>ExceptionThrowAndCatch_1024</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_1</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_2</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_4</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_8</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_16</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_32</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_64</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_128</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_256</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_512</t>
+  </si>
+  <si>
+    <t>ExceptionOnlyCreateException_1024</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_1</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_2</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_4</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_8</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_16</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_32</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_64</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_128</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_256</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_512</t>
+  </si>
+  <si>
+    <t>ExceptionWithTryCatch_1024</t>
   </si>
 </sst>
 </file>
@@ -301,9 +388,23 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -324,35 +425,215 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>异常!$A$2:$A$4</c:f>
+              <c:f>异常!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ExceptionOnlyCreateException</c:v>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>ExceptionOnlyCreateException_1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ExceptionThrowAndCatch</c:v>
+                  <c:v>ExceptionOnlyCreateException_2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ExceptionWithTryCatch</c:v>
+                  <c:v>ExceptionOnlyCreateException_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ExceptionOnlyCreateException_8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ExceptionOnlyCreateException_16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ExceptionOnlyCreateException_32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ExceptionOnlyCreateException_64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ExceptionOnlyCreateException_128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExceptionOnlyCreateException_256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExceptionOnlyCreateException_512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ExceptionOnlyCreateException_1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ExceptionWithTryCatch_1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ExceptionWithTryCatch_2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ExceptionWithTryCatch_4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ExceptionWithTryCatch_8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ExceptionWithTryCatch_16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ExceptionWithTryCatch_32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ExceptionWithTryCatch_64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ExceptionWithTryCatch_128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ExceptionWithTryCatch_256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ExceptionWithTryCatch_512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ExceptionWithTryCatch_1024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ExceptionThrowAndCatch_1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ExceptionThrowAndCatch_2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ExceptionThrowAndCatch_4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ExceptionThrowAndCatch_8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ExceptionThrowAndCatch_16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ExceptionThrowAndCatch_32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ExceptionThrowAndCatch_64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>ExceptionThrowAndCatch_128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ExceptionThrowAndCatch_256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ExceptionThrowAndCatch_512</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>ExceptionThrowAndCatch_1024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>异常!$B$2:$B$4</c:f>
+              <c:f>异常!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>755</c:v>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>859</c:v>
+                  <c:v>849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1294</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3654</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43768</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>87996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -375,35 +656,215 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>异常!$A$2:$A$4</c:f>
+              <c:f>异常!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>ExceptionOnlyCreateException</c:v>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>ExceptionOnlyCreateException_1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ExceptionThrowAndCatch</c:v>
+                  <c:v>ExceptionOnlyCreateException_2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ExceptionWithTryCatch</c:v>
+                  <c:v>ExceptionOnlyCreateException_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ExceptionOnlyCreateException_8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ExceptionOnlyCreateException_16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ExceptionOnlyCreateException_32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ExceptionOnlyCreateException_64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ExceptionOnlyCreateException_128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ExceptionOnlyCreateException_256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ExceptionOnlyCreateException_512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ExceptionOnlyCreateException_1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ExceptionWithTryCatch_1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ExceptionWithTryCatch_2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ExceptionWithTryCatch_4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ExceptionWithTryCatch_8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ExceptionWithTryCatch_16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ExceptionWithTryCatch_32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ExceptionWithTryCatch_64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>ExceptionWithTryCatch_128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ExceptionWithTryCatch_256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ExceptionWithTryCatch_512</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ExceptionWithTryCatch_1024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ExceptionThrowAndCatch_1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ExceptionThrowAndCatch_2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ExceptionThrowAndCatch_4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>ExceptionThrowAndCatch_8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ExceptionThrowAndCatch_16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ExceptionThrowAndCatch_32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>ExceptionThrowAndCatch_64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>ExceptionThrowAndCatch_128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>ExceptionThrowAndCatch_256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>ExceptionThrowAndCatch_512</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>ExceptionThrowAndCatch_1024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>异常!$C$2:$C$4</c:f>
+              <c:f>异常!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>711</c:v>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1035</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26056</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2457</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4654</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8482</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17455</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61659</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>123532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,11 +879,13 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146780928"/>
-        <c:axId val="146782464"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="156558080"/>
+        <c:axId val="164242176"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="146780928"/>
+        <c:axId val="156558080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146782464"/>
+        <c:crossAx val="164242176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,7 +902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146782464"/>
+        <c:axId val="164242176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146780928"/>
+        <c:crossAx val="156558080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -688,11 +1151,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164521472"/>
-        <c:axId val="166707584"/>
+        <c:axId val="69792512"/>
+        <c:axId val="69794048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164521472"/>
+        <c:axId val="69792512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166707584"/>
+        <c:crossAx val="69794048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +1172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166707584"/>
+        <c:axId val="69794048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,14 +1183,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164521472"/>
+        <c:crossAx val="69792512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1388,11 +1850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169022208"/>
-        <c:axId val="169023744"/>
+        <c:axId val="68268800"/>
+        <c:axId val="68270336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169022208"/>
+        <c:axId val="68268800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169023744"/>
+        <c:crossAx val="68270336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1410,7 +1872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169023744"/>
+        <c:axId val="68270336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,14 +1883,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169022208"/>
+        <c:crossAx val="68268800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1935,11 +2396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164729216"/>
-        <c:axId val="164730752"/>
+        <c:axId val="71466368"/>
+        <c:axId val="71468160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164729216"/>
+        <c:axId val="71466368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +2410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164730752"/>
+        <c:crossAx val="71468160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1957,7 +2418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164730752"/>
+        <c:axId val="71468160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,14 +2429,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164729216"/>
+        <c:crossAx val="71466368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2147,12 +2607,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="167617664"/>
-        <c:axId val="167619584"/>
+        <c:axId val="71604480"/>
+        <c:axId val="71610368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="167617664"/>
+        <c:axId val="71604480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167619584"/>
+        <c:crossAx val="71610368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2169,7 +2629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167619584"/>
+        <c:axId val="71610368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,14 +2640,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167617664"/>
+        <c:crossAx val="71604480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2652,11 +3111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143225216"/>
-        <c:axId val="144492032"/>
+        <c:axId val="71527808"/>
+        <c:axId val="71533696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143225216"/>
+        <c:axId val="71527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +3125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144492032"/>
+        <c:crossAx val="71533696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2674,7 +3133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144492032"/>
+        <c:axId val="71533696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,14 +3144,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143225216"/>
+        <c:crossAx val="71527808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3032,12 +3490,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="144442880"/>
-        <c:axId val="144444416"/>
+        <c:axId val="71564672"/>
+        <c:axId val="71640192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144442880"/>
+        <c:axId val="71564672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144444416"/>
+        <c:crossAx val="71640192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3055,7 +3513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144444416"/>
+        <c:axId val="71640192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3066,14 +3524,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144442880"/>
+        <c:crossAx val="71564672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3453,12 +3910,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="170033536"/>
-        <c:axId val="174488192"/>
+        <c:axId val="71704576"/>
+        <c:axId val="71706112"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="170033536"/>
+        <c:axId val="71704576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,7 +3925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174488192"/>
+        <c:crossAx val="71706112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3476,7 +3933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174488192"/>
+        <c:axId val="71706112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +3944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170033536"/>
+        <c:crossAx val="71704576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,20 +3970,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4066,60 +4523,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>755</v>
-      </c>
-      <c r="C2" s="3">
-        <v>711</v>
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2">
+        <v>712</v>
+      </c>
+      <c r="C2" s="2">
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>859</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1035</v>
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>849</v>
+      </c>
+      <c r="C3" s="2">
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6</v>
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>838</v>
+      </c>
+      <c r="C4" s="2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>990</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1195</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2040</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3351</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6252</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12076</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>21119</v>
+      </c>
+      <c r="C11" s="2">
+        <v>26056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43667</v>
+      </c>
+      <c r="C12" s="2">
+        <v>52557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2">
+        <v>95</v>
+      </c>
+      <c r="C19" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2">
+        <v>181</v>
+      </c>
+      <c r="C20" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2">
+        <v>368</v>
+      </c>
+      <c r="C21" s="2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2">
+        <v>664</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1294</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2">
+        <v>883</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2">
+        <v>978</v>
+      </c>
+      <c r="C25" s="2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2">
+        <v>994</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1508</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1915</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3654</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6273</v>
+      </c>
+      <c r="C30" s="2">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>11627</v>
+      </c>
+      <c r="C31" s="2">
+        <v>17455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2">
+        <v>23781</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43768</v>
+      </c>
+      <c r="C33" s="2">
+        <v>61659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2">
+        <v>87996</v>
+      </c>
+      <c r="C34" s="2">
+        <v>123532</v>
       </c>
     </row>
   </sheetData>
@@ -4146,18 +4933,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>112</v>
@@ -4168,7 +4955,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -4179,7 +4966,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>8</v>
@@ -4190,7 +4977,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>491</v>
@@ -4201,7 +4988,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>6</v>
@@ -4212,7 +4999,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -4223,7 +5010,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>222</v>
@@ -4234,7 +5021,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -4245,7 +5032,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -4256,7 +5043,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>13</v>
@@ -4291,19 +5078,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4669,18 +5456,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>19</v>
@@ -4691,7 +5478,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>36</v>
@@ -4702,7 +5489,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>27</v>
@@ -4739,25 +5526,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4909,7 +5696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -4920,13 +5707,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
